--- a/Final/ProduccionMangos.xlsx
+++ b/Final/ProduccionMangos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alec_\Documents\GitHub\ProduccionMango\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88551256-3B6F-497E-940A-EC940B1328FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355D7FF3-E925-40F9-A72E-8386ABD70AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3210" windowWidth="22155" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>ENTIDAD</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>YEAR</t>
+  </si>
+  <si>
+    <t>TEMPERATURAANUAL</t>
   </si>
 </sst>
 </file>
@@ -440,24 +443,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +489,11 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -514,8 +521,11 @@
       <c r="I2" s="1">
         <v>36359.360000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>20.958333329999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -543,8 +553,11 @@
       <c r="I3" s="1">
         <v>117250.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>27.141666669999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -572,8 +585,11 @@
       <c r="I4" s="1">
         <v>215941.33</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>27.19166667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -601,8 +617,11 @@
       <c r="I5" s="1">
         <v>1451941.81</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>25.141666669999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -630,8 +649,11 @@
       <c r="I6" s="1">
         <v>7316.96</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>18.958333329999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -659,8 +681,11 @@
       <c r="I7" s="1">
         <v>2167128.87</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>25.19166667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -688,8 +713,11 @@
       <c r="I8" s="1">
         <v>2170.5500000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>18.666666670000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -717,8 +745,11 @@
       <c r="I9" s="1">
         <v>366362.51</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>21.158333330000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -746,8 +777,11 @@
       <c r="I10" s="1">
         <v>17160.34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>14.95833333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -775,8 +809,11 @@
       <c r="I11" s="1">
         <v>941001.39</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>20.841666669999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -804,8 +841,11 @@
       <c r="I12" s="1">
         <v>17473.52</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>22.133333329999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -833,8 +873,11 @@
       <c r="I13" s="1">
         <v>1147354.03</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>26.19166667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -862,8 +905,11 @@
       <c r="I14" s="1">
         <v>682187.43</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>23.908333330000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -891,8 +937,11 @@
       <c r="I15" s="1">
         <v>2151.6999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>18.158333330000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -920,8 +969,11 @@
       <c r="I16" s="1">
         <v>2403.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>20.016666669999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -949,8 +1001,11 @@
       <c r="I17" s="1">
         <v>2876.16</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>23.516666669999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -978,8 +1033,11 @@
       <c r="I18" s="1">
         <v>856208.03</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>25.833333329999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1007,8 +1065,11 @@
       <c r="I19" s="1">
         <v>2101.23</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>22.94166667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1036,8 +1097,11 @@
       <c r="I20" s="1">
         <v>3402.46</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>27.241666670000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1065,8 +1129,11 @@
       <c r="I21" s="1">
         <v>47680.84</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>24.475000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1094,8 +1161,11 @@
       <c r="I22" s="1">
         <v>360255.44</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>22.783333330000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1123,8 +1193,11 @@
       <c r="I23" s="1">
         <v>5533.41</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1152,8 +1225,11 @@
       <c r="I24" s="1">
         <v>1012.83</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1181,8 +1257,11 @@
       <c r="I25" s="1">
         <v>46606.49</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1210,8 +1289,11 @@
       <c r="I26" s="1">
         <v>156732.01</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1239,8 +1321,11 @@
       <c r="I27" s="1">
         <v>238017.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1268,8 +1353,11 @@
       <c r="I28" s="1">
         <v>1422896.69</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1297,8 +1385,11 @@
       <c r="I29" s="1">
         <v>7342.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1326,8 +1417,11 @@
       <c r="I30" s="1">
         <v>2070866.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1355,8 +1449,11 @@
       <c r="I31" s="1">
         <v>2305.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1384,8 +1481,11 @@
       <c r="I32" s="1">
         <v>390480.81</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1413,8 +1513,11 @@
       <c r="I33" s="1">
         <v>20528.73</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1442,8 +1545,11 @@
       <c r="I34" s="1">
         <v>946860.11</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1471,8 +1577,11 @@
       <c r="I35" s="1">
         <v>17435.59</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1500,8 +1609,11 @@
       <c r="I36" s="1">
         <v>1124271.3700000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1529,8 +1641,11 @@
       <c r="I37" s="1">
         <v>711541.85</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1558,8 +1673,11 @@
       <c r="I38" s="1">
         <v>2039.16</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1587,8 +1705,11 @@
       <c r="I39" s="1">
         <v>1638.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -1616,8 +1737,11 @@
       <c r="I40" s="1">
         <v>1449.12</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1645,8 +1769,11 @@
       <c r="I41" s="1">
         <v>1578839.64</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1674,8 +1801,11 @@
       <c r="I42" s="1">
         <v>1371.47</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1833,11 @@
       <c r="I43" s="1">
         <v>3026.97</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1732,8 +1865,11 @@
       <c r="I44" s="1">
         <v>41001.449999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1761,8 +1897,11 @@
       <c r="I45" s="1">
         <v>311563.44</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1790,8 +1929,11 @@
       <c r="I46" s="1">
         <v>10313.31</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -1819,8 +1961,11 @@
       <c r="I47" s="1">
         <v>1287.42</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1848,8 +1993,11 @@
       <c r="I48" s="1">
         <v>50381.02</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1877,8 +2025,11 @@
       <c r="I49" s="1">
         <v>120802.35</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1906,8 +2057,11 @@
       <c r="I50" s="1">
         <v>241887.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1935,8 +2089,11 @@
       <c r="I51" s="1">
         <v>1446415.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1964,8 +2121,11 @@
       <c r="I52" s="1">
         <v>6608.22</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1993,8 +2153,11 @@
       <c r="I53" s="1">
         <v>2641906.4500000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2022,8 +2185,11 @@
       <c r="I54" s="1">
         <v>2168.9299999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2051,8 +2217,11 @@
       <c r="I55" s="1">
         <v>306878.17</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2080,8 +2249,11 @@
       <c r="I56" s="1">
         <v>17213.189999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2109,8 +2281,11 @@
       <c r="I57" s="1">
         <v>1113047.27</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2138,8 +2313,11 @@
       <c r="I58" s="1">
         <v>16819.759999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2167,8 +2345,11 @@
       <c r="I59" s="1">
         <v>1150823.3400000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2377,11 @@
       <c r="I60" s="1">
         <v>705507.02</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2225,8 +2409,11 @@
       <c r="I61" s="1">
         <v>2130.35</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2254,8 +2441,11 @@
       <c r="I62" s="1">
         <v>1057.8800000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -2283,8 +2473,11 @@
       <c r="I63" s="1">
         <v>3531</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -2312,8 +2505,11 @@
       <c r="I64" s="1">
         <v>2524651.4500000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -2341,8 +2537,11 @@
       <c r="I65" s="1">
         <v>2348.1999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2370,8 +2569,11 @@
       <c r="I66" s="1">
         <v>3138.91</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -2399,8 +2601,11 @@
       <c r="I67" s="1">
         <v>48192.98</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2428,8 +2633,11 @@
       <c r="I68" s="1">
         <v>364059.99</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2457,8 +2665,11 @@
       <c r="I69" s="1">
         <v>9561.25</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2485,6 +2696,9 @@
       </c>
       <c r="I70" s="1">
         <v>1067.78</v>
+      </c>
+      <c r="J70">
+        <v>18.3</v>
       </c>
     </row>
   </sheetData>
